--- a/biology/Médecine/Cartilage_épiglottique/Cartilage_épiglottique.xlsx
+++ b/biology/Médecine/Cartilage_épiglottique/Cartilage_épiglottique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartilage_%C3%A9piglottique</t>
+          <t>Cartilage_épiglottique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage épiglottique est l'un des 3 cartilages impairs constitutifs du larynx. Sa partie supérieure constitue l'armature de l'épiglotte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartilage_%C3%A9piglottique</t>
+          <t>Cartilage_épiglottique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage épiglottique est une lame cartilagineuse ovalaire élastique. Son grand axe est vertical et sa partie inférieure est effilée formant le pétiole de l'épiglotte.
 Il est situé dans la partie supérieure et antérieure du larynx au-dessus du cartilage thyroïde
